--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1991.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1991.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.183241553218406</v>
+        <v>0.6467574834823608</v>
       </c>
       <c r="B1">
-        <v>2.192109680966623</v>
+        <v>1.009629368782043</v>
       </c>
       <c r="C1">
-        <v>8.470673940441129</v>
+        <v>2.597643136978149</v>
       </c>
       <c r="D1">
-        <v>2.641444092863279</v>
+        <v>6.258825778961182</v>
       </c>
       <c r="E1">
-        <v>1.204700942682712</v>
+        <v>2.12835955619812</v>
       </c>
     </row>
   </sheetData>
